--- a/analysis/data/raw_data/2018_SteelheadData.xlsx
+++ b/analysis/data/raw_data/2018_SteelheadData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnsmsj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofwa-my.sharepoint.com/personal/kevin_see_dfw_wa_gov/Documents/Documents/Git/MyProjects/UCSthdReddObsErr/analysis/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B936C42749257394B977379EA629A1B7FC495A5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96D9845C-2BD9-4A51-AA76-D01488B396FE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13932" windowHeight="10368"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Census" sheetId="2" r:id="rId1"/>
@@ -20,10 +21,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Census!$A$1:$M$93</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -602,7 +614,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -771,7 +783,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1048,23 +1060,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="11" width="14" style="2" customWidth="1"/>
     <col min="12" max="13" width="14" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="11.90625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1146,7 +1158,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1187,7 +1199,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1228,7 +1240,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1269,7 +1281,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1310,7 +1322,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1351,7 +1363,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1392,7 +1404,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1433,7 +1445,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1474,7 +1486,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1515,7 +1527,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1556,7 +1568,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1597,7 +1609,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1638,7 +1650,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1679,7 +1691,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1720,7 +1732,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1761,7 +1773,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1802,7 +1814,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1843,7 +1855,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -1884,7 +1896,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1925,7 +1937,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1966,7 +1978,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -2007,7 +2019,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -2048,7 +2060,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2089,7 +2101,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -2130,7 +2142,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
@@ -2171,7 +2183,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -2212,7 +2224,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -2253,7 +2265,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="2" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
@@ -2294,7 +2306,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
@@ -2335,7 +2347,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
@@ -2376,7 +2388,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
@@ -2417,7 +2429,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
@@ -2458,7 +2470,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
@@ -2499,7 +2511,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
@@ -2540,7 +2552,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
@@ -2581,7 +2593,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
@@ -2622,7 +2634,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>13</v>
       </c>
@@ -2663,7 +2675,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
@@ -2704,7 +2716,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
@@ -2745,7 +2757,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
@@ -2786,7 +2798,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
@@ -2827,7 +2839,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -2868,7 +2880,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>13</v>
       </c>
@@ -2909,7 +2921,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -2950,7 +2962,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
@@ -2991,7 +3003,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>13</v>
       </c>
@@ -3032,7 +3044,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>13</v>
       </c>
@@ -3073,7 +3085,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>13</v>
       </c>
@@ -3114,7 +3126,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>13</v>
       </c>
@@ -3155,7 +3167,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>13</v>
       </c>
@@ -3196,7 +3208,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>13</v>
       </c>
@@ -3237,7 +3249,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
@@ -3278,7 +3290,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>13</v>
       </c>
@@ -3319,7 +3331,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>13</v>
       </c>
@@ -3360,7 +3372,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>13</v>
       </c>
@@ -3401,7 +3413,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>13</v>
       </c>
@@ -3442,7 +3454,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>13</v>
       </c>
@@ -3483,7 +3495,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>13</v>
       </c>
@@ -3524,7 +3536,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>13</v>
       </c>
@@ -3565,7 +3577,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>13</v>
       </c>
@@ -3606,7 +3618,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>13</v>
       </c>
@@ -3647,7 +3659,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>13</v>
       </c>
@@ -3688,7 +3700,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>32</v>
       </c>
@@ -3729,7 +3741,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>32</v>
       </c>
@@ -3770,7 +3782,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>32</v>
       </c>
@@ -3811,7 +3823,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>32</v>
       </c>
@@ -3852,7 +3864,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>32</v>
       </c>
@@ -3893,7 +3905,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>32</v>
       </c>
@@ -3934,7 +3946,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>32</v>
       </c>
@@ -3975,7 +3987,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>32</v>
       </c>
@@ -4016,7 +4028,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>32</v>
       </c>
@@ -4057,7 +4069,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>32</v>
       </c>
@@ -4098,7 +4110,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>34</v>
       </c>
@@ -4139,7 +4151,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>34</v>
       </c>
@@ -4180,7 +4192,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>34</v>
       </c>
@@ -4221,7 +4233,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>34</v>
       </c>
@@ -4262,7 +4274,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -4303,7 +4315,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>34</v>
       </c>
@@ -4344,7 +4356,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>34</v>
       </c>
@@ -4385,7 +4397,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>34</v>
       </c>
@@ -4426,7 +4438,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>34</v>
       </c>
@@ -4467,7 +4479,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>34</v>
       </c>
@@ -4508,7 +4520,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>37</v>
       </c>
@@ -4549,7 +4561,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>37</v>
       </c>
@@ -4590,7 +4602,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
@@ -4631,7 +4643,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>37</v>
       </c>
@@ -4672,7 +4684,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>37</v>
       </c>
@@ -4713,7 +4725,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>37</v>
       </c>
@@ -4754,7 +4766,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>37</v>
       </c>
@@ -4795,7 +4807,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>37</v>
       </c>
@@ -4836,7 +4848,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>37</v>
       </c>
@@ -4884,31 +4896,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.08984375" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="20" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="6.54296875" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="7" customWidth="1"/>
     <col min="12" max="14" width="14" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="12.109375" style="7"/>
+    <col min="15" max="16384" width="12.08984375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>129</v>
       </c>
@@ -4952,7 +4964,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>2018</v>
       </c>
@@ -4993,7 +5005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2018</v>
       </c>
@@ -5034,7 +5046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2018</v>
       </c>
@@ -5075,7 +5087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2018</v>
       </c>
@@ -5116,7 +5128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2018</v>
       </c>
@@ -5157,7 +5169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2018</v>
       </c>
@@ -5198,7 +5210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2018</v>
       </c>
@@ -5239,7 +5251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>2018</v>
       </c>
@@ -5287,19 +5299,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="11.44140625" customWidth="1"/>
+    <col min="1" max="4" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5313,7 +5325,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -5327,7 +5339,7 @@
         <v>25609</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -5341,7 +5353,7 @@
         <v>4585</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -5355,7 +5367,7 @@
         <v>57148</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -5369,7 +5381,7 @@
         <v>10877</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -5383,7 +5395,7 @@
         <v>13048</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -5397,7 +5409,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -5411,7 +5423,7 @@
         <v>10048</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -5425,7 +5437,7 @@
         <v>23728</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -5439,7 +5451,7 @@
         <v>3233</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -5453,7 +5465,7 @@
         <v>10222</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -5467,7 +5479,7 @@
         <v>24520</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -5481,7 +5493,7 @@
         <v>12188</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -5495,7 +5507,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -5509,7 +5521,7 @@
         <v>31210</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -5530,21 +5542,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13.77734375" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="15.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="13.81640625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="12" t="s">
         <v>81</v>
@@ -5571,7 +5583,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>110</v>
       </c>
@@ -5601,7 +5613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>98</v>
       </c>
@@ -5631,7 +5643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>89</v>
       </c>
@@ -5661,7 +5673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -5691,7 +5703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>90</v>
       </c>
@@ -5721,7 +5733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>95</v>
       </c>
@@ -5751,7 +5763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>111</v>
       </c>
@@ -5781,7 +5793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>97</v>
       </c>
@@ -5811,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>112</v>
       </c>
@@ -5841,7 +5853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>92</v>
       </c>
@@ -5871,7 +5883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>96</v>
       </c>
@@ -5901,7 +5913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -5931,7 +5943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
@@ -5961,7 +5973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>94</v>
       </c>
@@ -5991,7 +6003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>93</v>
       </c>
@@ -6021,7 +6033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
@@ -6051,7 +6063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>115</v>
       </c>
@@ -6081,7 +6093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6092,7 +6104,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -6103,7 +6115,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>116</v>
       </c>
@@ -6124,7 +6136,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>111</v>
       </c>
@@ -6146,7 +6158,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>112</v>
       </c>
@@ -6168,7 +6180,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>96</v>
       </c>
@@ -6190,7 +6202,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>92</v>
       </c>
@@ -6212,7 +6224,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>94</v>
       </c>
@@ -6234,7 +6246,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>93</v>
       </c>
@@ -6256,7 +6268,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>114</v>
       </c>
@@ -6278,7 +6290,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>115</v>
       </c>
@@ -6300,7 +6312,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -6311,7 +6323,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -6322,7 +6334,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>1</v>
       </c>
@@ -6345,7 +6357,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>14</v>
       </c>
@@ -6369,7 +6381,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>20</v>
       </c>
@@ -6393,7 +6405,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>22</v>
       </c>
@@ -6417,7 +6429,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>24</v>
       </c>
@@ -6441,7 +6453,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>30</v>
       </c>
@@ -6465,12 +6477,12 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B41" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B42" s="8">
         <v>18</v>
       </c>
